--- a/gestao_menottech.xlsx
+++ b/gestao_menottech.xlsx
@@ -2,23 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen.rodrigues\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBE77B3-6069-4003-8137-D5856BAFF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{536DE9DA-DB2F-4011-9EF5-7691F336597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E08C1462-2DD2-43D0-95C3-3BCEEAF0E4E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6598C545-CABC-40E5-B9E5-19026D926AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
-    <sheet name="Pedido__Vendas" sheetId="2" r:id="rId2"/>
+    <sheet name="Pedido_Vendas" sheetId="2" r:id="rId2"/>
     <sheet name="Ténicos_Parceiros" sheetId="3" r:id="rId3"/>
     <sheet name="Financeiro_Comercial" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -174,39 +187,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -369,13 +382,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -384,6 +390,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -448,21 +461,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A65E1BB-857A-4FD5-A987-AB0923A231C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6631B5D5-E5F6-46F8-9424-02EF081045BE}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -504,14 +537,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08033A8D-0058-4C46-8797-ACD74D95C055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93089335-5A9D-472B-8033-469A86D9AE81}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -567,11 +605,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F56DC8-2C05-479F-A9BC-5F7736112C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39B3C7-BDCD-43A2-969D-FFD4297DC111}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -617,11 +658,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4217DC6E-A0E5-4D3C-B36B-078EE29AE9F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C446386-7F5C-4AD7-BAAF-7CC9FFC7D6BA}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -663,5 +707,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/gestao_menottech.xlsx
+++ b/gestao_menottech.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen.rodrigues\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{536DE9DA-DB2F-4011-9EF5-7691F336597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6598C545-CABC-40E5-B9E5-19026D926AC1}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
-    <sheet name="Pedido_Vendas" sheetId="2" r:id="rId2"/>
-    <sheet name="Ténicos_Parceiros" sheetId="3" r:id="rId3"/>
-    <sheet name="Financeiro_Comercial" sheetId="4" r:id="rId4"/>
+    <sheet state="visible" name="Clientes" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Pedido_Vendas" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Tecnicos_Parceiros" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Financeiro_Comercial" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -128,13 +106,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,49 +120,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -382,21 +363,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -484,32 +465,32 @@
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6631B5D5-E5F6-46F8-9424-02EF081045BE}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="15.43"/>
+    <col customWidth="1" min="2" max="2" width="9.14"/>
+    <col customWidth="1" min="3" max="3" width="12.0"/>
+    <col customWidth="1" min="4" max="5" width="9.14"/>
+    <col customWidth="1" min="6" max="6" width="34.86"/>
+    <col customWidth="1" min="7" max="7" width="42.57"/>
+    <col customWidth="1" min="8" max="8" width="12.43"/>
+    <col customWidth="1" min="9" max="11" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,154 +516,407 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <printOptions/>
+  <pageMargins bottom="0.7874015750000001" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.7874015750000001"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+    <oddFooter>&amp;R_x000D_#000000 Classificação: Pública</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93089335-5A9D-472B-8033-469A86D9AE81}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H2">
-        <f>E2-(F2+G2)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39B3C7-BDCD-43A2-969D-FFD4297DC111}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="9.14"/>
+    <col customWidth="1" min="3" max="3" width="15.14"/>
+    <col customWidth="1" min="4" max="4" width="11.86"/>
+    <col customWidth="1" min="5" max="5" width="14.14"/>
+    <col customWidth="1" min="6" max="6" width="16.29"/>
+    <col customWidth="1" min="7" max="7" width="16.0"/>
+    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="9" width="20.0"/>
+    <col customWidth="1" min="10" max="10" width="43.14"/>
+    <col customWidth="1" min="11" max="11" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="J1" t="s">
+        <v>17</v>
       </c>
     </row>
+    <row r="2">
+      <c r="H2" t="str">
+        <f>E2-(F2+G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <printOptions/>
+  <pageMargins bottom="0.7874015750000001" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.7874015750000001"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+    <oddFooter>&amp;R_x000D_#000000 Classificação: Pública</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C446386-7F5C-4AD7-BAAF-7CC9FFC7D6BA}">
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="9.14"/>
+    <col customWidth="1" min="3" max="3" width="38.43"/>
+    <col customWidth="1" min="4" max="4" width="23.0"/>
+    <col customWidth="1" min="5" max="5" width="20.43"/>
+    <col customWidth="1" min="6" max="6" width="18.86"/>
+    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="8" max="8" width="12.43"/>
+    <col customWidth="1" min="9" max="11" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.7874015750000001" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.7874015750000001"/>
+  <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_#000000 Classificação: Pública</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.14"/>
+    <col customWidth="1" min="2" max="2" width="17.57"/>
+    <col customWidth="1" min="3" max="3" width="18.14"/>
+    <col customWidth="1" min="4" max="4" width="12.57"/>
+    <col customWidth="1" min="5" max="5" width="12.14"/>
+    <col customWidth="1" min="6" max="6" width="29.43"/>
+    <col customWidth="1" min="7" max="7" width="12.43"/>
+    <col customWidth="1" min="8" max="11" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -705,10 +939,93 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <printOptions/>
+  <pageMargins bottom="0.7874015750000001" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.7874015750000001"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Classificação: Pública</oddFooter>
+    <oddFooter>&amp;R_x000D_#000000 Classificação: Pública</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>